--- a/Datasets/RawDatasets/Costo orario risorse - consuntivo.xlsx
+++ b/Datasets/RawDatasets/Costo orario risorse - consuntivo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antonio\Desktop\SCG Project - Pulizia fase 4 - Copia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcovinciguerra/Github/SCGProject/Datasets/RawDatasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F32AB0-C085-4392-ABAB-90523D75F92A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3A7B23-8046-6448-84AE-FD1664F3F90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costo orario risorse" sheetId="4" r:id="rId1"/>
@@ -115,10 +115,10 @@
     <t>Risorsa</t>
   </si>
   <si>
-    <t>Area di produzione</t>
-  </si>
-  <si>
-    <t>Costo orario (€/h)</t>
+    <t>CostoOrario</t>
+  </si>
+  <si>
+    <t>AreaProduzione</t>
   </si>
 </sst>
 </file>
@@ -504,28 +504,28 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -536,7 +536,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -547,7 +547,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -558,7 +558,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -569,7 +569,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -580,7 +580,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -591,7 +591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -602,7 +602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -613,7 +613,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -624,7 +624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -635,7 +635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -646,7 +646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -657,7 +657,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -668,7 +668,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -679,7 +679,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -690,7 +690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -701,7 +701,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -712,7 +712,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -723,7 +723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -734,7 +734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -745,7 +745,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -767,7 +767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -778,7 +778,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -789,7 +789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -800,7 +800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -811,7 +811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -822,7 +822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -833,7 +833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -844,7 +844,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -855,7 +855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -866,7 +866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -877,7 +877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -888,7 +888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -899,7 +899,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -910,7 +910,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -921,7 +921,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -932,7 +932,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
@@ -943,7 +943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -954,7 +954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -965,7 +965,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
@@ -976,7 +976,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
@@ -987,7 +987,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
@@ -998,7 +998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>12</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>

--- a/Datasets/RawDatasets/Costo orario risorse - consuntivo.xlsx
+++ b/Datasets/RawDatasets/Costo orario risorse - consuntivo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcovinciguerra/Github/SCGProject/Datasets/RawDatasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antonio\Desktop\SCG Project - Pulizia fase 4 - Copia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3A7B23-8046-6448-84AE-FD1664F3F90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F32AB0-C085-4392-ABAB-90523D75F92A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costo orario risorse" sheetId="4" r:id="rId1"/>
@@ -115,10 +115,10 @@
     <t>Risorsa</t>
   </si>
   <si>
-    <t>CostoOrario</t>
-  </si>
-  <si>
-    <t>AreaProduzione</t>
+    <t>Area di produzione</t>
+  </si>
+  <si>
+    <t>Costo orario (€/h)</t>
   </si>
 </sst>
 </file>
@@ -504,28 +504,28 @@
   <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -536,7 +536,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -547,7 +547,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -558,7 +558,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -569,7 +569,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -580,7 +580,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -591,7 +591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -602,7 +602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -613,7 +613,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -624,7 +624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -635,7 +635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -646,7 +646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -657,7 +657,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -668,7 +668,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -679,7 +679,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -690,7 +690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -701,7 +701,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -712,7 +712,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -723,7 +723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -734,7 +734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -745,7 +745,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -767,7 +767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -778,7 +778,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -789,7 +789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -800,7 +800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -811,7 +811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -822,7 +822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -833,7 +833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -844,7 +844,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -855,7 +855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -866,7 +866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -877,7 +877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -888,7 +888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -899,7 +899,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -910,7 +910,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -921,7 +921,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -932,7 +932,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
@@ -943,7 +943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -954,7 +954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -965,7 +965,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
@@ -976,7 +976,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
@@ -987,7 +987,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
@@ -998,7 +998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>12</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>

--- a/Datasets/RawDatasets/Costo orario risorse - consuntivo.xlsx
+++ b/Datasets/RawDatasets/Costo orario risorse - consuntivo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antonio\Desktop\SCG Project - Pulizia fase 4 - Copia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcovinciguerra/Github/SCGProject/Datasets/RawDatasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F32AB0-C085-4392-ABAB-90523D75F92A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51A3101-2B2B-2749-AD92-1A59B70216B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costo orario risorse" sheetId="4" r:id="rId1"/>
@@ -507,14 +507,14 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -525,7 +525,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -536,7 +536,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -547,7 +547,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -558,7 +558,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -569,7 +569,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -580,7 +580,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -591,7 +591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -602,7 +602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -613,7 +613,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -624,7 +624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -635,7 +635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -646,7 +646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -657,7 +657,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -668,7 +668,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -679,7 +679,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -690,7 +690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -701,7 +701,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -712,7 +712,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -723,7 +723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -734,7 +734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -745,7 +745,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -767,7 +767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -778,7 +778,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -789,7 +789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -800,7 +800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -811,7 +811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -822,7 +822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
@@ -833,7 +833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -844,7 +844,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
@@ -855,7 +855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -866,7 +866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -877,7 +877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -888,7 +888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -899,7 +899,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -910,7 +910,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -921,7 +921,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -932,7 +932,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
@@ -943,7 +943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
@@ -954,7 +954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
@@ -965,7 +965,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
@@ -976,7 +976,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
@@ -987,7 +987,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
@@ -998,7 +998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>8</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>8</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>11</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>11</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>12</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>
